--- a/GUI.xlsx
+++ b/GUI.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\110186081\PycharmProjects\MC_Pad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\110186081\PycharmProjects\MC_Pad\MC-Pad_rev1.8_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B47BDD-D8E6-4AA5-BFBB-3C9A0EFE6026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380"/>
+    <workbookView xWindow="132" yWindow="528" windowWidth="22104" windowHeight="11832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,7 +103,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -140,7 +147,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -178,7 +191,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -193,6 +212,50 @@
         <a:xfrm>
           <a:off x="17030700" y="1988820"/>
           <a:ext cx="6849431" cy="4991797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>665463</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>26955</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C01218D-2F2F-2266-77A0-F9E85D798B92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17023080" y="7132320"/>
+          <a:ext cx="4429743" cy="2038635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -466,11 +529,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P7" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+    <sheetView tabSelected="1" topLeftCell="M19" workbookViewId="0">
+      <selection activeCell="AF42" sqref="AF42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/GUI.xlsx
+++ b/GUI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\110186081\PycharmProjects\MC_Pad\MC-Pad_rev1.8_Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\MC-Pad_rev1.8_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B47BDD-D8E6-4AA5-BFBB-3C9A0EFE6026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEC3B8A-C6DC-4420-A633-307DCEC6790E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="528" windowWidth="22104" windowHeight="11832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="150" windowWidth="17535" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -264,6 +264,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>140202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBAAE98-E084-825C-BBEC-5A39F1EEC13D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12030074" y="8782050"/>
+          <a:ext cx="5210175" cy="7312527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -532,11 +576,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M19" workbookViewId="0">
-      <selection activeCell="AF42" sqref="AF42"/>
+    <sheetView tabSelected="1" topLeftCell="N34" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GUI.xlsx
+++ b/GUI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\MC-Pad_rev1.8_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEC3B8A-C6DC-4420-A633-307DCEC6790E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B247EF53-85FF-43E1-BDB7-87220F165997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="150" windowWidth="17535" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="15" windowWidth="17535" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,50 +222,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>665463</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>26955</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C01218D-2F2F-2266-77A0-F9E85D798B92}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17023080" y="7132320"/>
-          <a:ext cx="4429743" cy="2038635"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>371474</xdr:colOff>
       <xdr:row>36</xdr:row>
@@ -291,7 +247,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -306,6 +262,359 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>665463</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="グループ化 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2997E029-3D19-622A-6982-4619165051CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="17404080" y="7427595"/>
+          <a:ext cx="4521183" cy="3792855"/>
+          <a:chOff x="17404080" y="7427595"/>
+          <a:chExt cx="4521183" cy="3792855"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="図 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C01218D-2F2F-2266-77A0-F9E85D798B92}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17404080" y="7427595"/>
+            <a:ext cx="4521183" cy="2124360"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="テキスト ボックス 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF99E0F3-BB37-C1E2-F3ED-3902E755B3C5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19002375" y="9572625"/>
+            <a:ext cx="2895600" cy="666750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>周回して、基準位置を検出し位置を記憶しておく</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="テキスト ボックス 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AE8E067-125E-2261-0411-203C6C56B298}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19002375" y="10296525"/>
+            <a:ext cx="2857500" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>基準位置に移動</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="テキスト ボックス 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F3DBF89-F8FB-DCE8-48F1-92D09CFC9C5D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19021425" y="10810875"/>
+            <a:ext cx="2857500" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>多分、現在の位置が正しいか判断する</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{854E38B9-072D-15A2-67C0-C6F01DDD1A2C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="7" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="18678525" y="8401050"/>
+            <a:ext cx="323850" cy="1504950"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2C1B0B-B93F-CE79-16C4-38CAAC5703A6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="8" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="18640425" y="8972550"/>
+            <a:ext cx="361950" cy="1528763"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE5C30E-1C30-29CE-988E-662118C673FE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="9" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="18535650" y="9372600"/>
+            <a:ext cx="485775" cy="1643063"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -576,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N34" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView tabSelected="1" topLeftCell="O31" workbookViewId="0">
+      <selection activeCell="AB45" sqref="AB45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
